--- a/results/MVSE/imdb/MVSE_imdb<l05><WH>63.41.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l05><WH>63.41.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -665,7 +665,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -854,33 +854,33 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>0.53</v>
+        <v>0.29</v>
       </c>
       <c r="O6" t="n">
-        <v>63.05</v>
+        <v>63.07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.43</v>
+        <v>1.34</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_46_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-17_53_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -892,11 +892,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -911,7 +907,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -933,27 +929,27 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="O7" t="n">
         <v>63.05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.17</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-01_46_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,7 +961,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -980,7 +980,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -996,33 +996,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0.38</v>
+        <v>0.55</v>
       </c>
       <c r="O8" t="n">
-        <v>63.03</v>
+        <v>63.05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_48_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_11_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1042,14 +1042,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1064,34 +1064,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="O9" t="n">
-        <v>62.31</v>
+        <v>63.03</v>
       </c>
       <c r="P9" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.11</v>
+        <v>0.49</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_46_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_48_41', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1111,14 +1111,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1133,34 +1133,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="O10" t="n">
-        <v>61.95</v>
+        <v>62.31</v>
       </c>
       <c r="P10" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.91</v>
+        <v>1.11</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_19_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_46_27', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1172,11 +1172,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1184,14 +1180,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1206,34 +1202,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
-        <v>61.6</v>
+        <v>61.95</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.72</v>
+        <v>0.91</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_12_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-00_19_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1257,7 +1253,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1279,34 +1275,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.21</v>
+        <v>0.7</v>
       </c>
       <c r="O12" t="n">
-        <v>61.46</v>
+        <v>61.6</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_33_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_12_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1337,7 +1333,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1353,33 +1349,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>0.57</v>
+        <v>0.21</v>
       </c>
       <c r="O13" t="n">
-        <v>61.19</v>
+        <v>61.46</v>
       </c>
       <c r="P13" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.19</v>
+        <v>0.85</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_53_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-17_33_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1403,7 +1399,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1425,34 +1421,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>3</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="O14" t="n">
-        <v>59.78</v>
+        <v>61.19</v>
       </c>
       <c r="P14" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.78</v>
+        <v>0.19</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_22_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-19_53_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1476,7 +1472,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1498,34 +1494,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="O15" t="n">
-        <v>59.46</v>
+        <v>59.78</v>
       </c>
       <c r="P15" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_22_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1556,7 +1552,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1578,27 +1574,27 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.42</v>
+        <v>0.2</v>
       </c>
       <c r="O16" t="n">
-        <v>59.41</v>
+        <v>59.46</v>
       </c>
       <c r="P16" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.27</v>
+        <v>0.82</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_54_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_14_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1645,33 +1641,33 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="O17" t="n">
-        <v>58.92</v>
+        <v>59.41</v>
       </c>
       <c r="P17" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.72</v>
+        <v>1.27</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_45_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-16_54_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1695,7 +1691,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1717,28 +1713,101 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O18" t="n">
+        <v>58.92</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_45_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>0.92</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>58.18</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>0.06</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>0.15</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-15_48_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="n">
+      <c r="S19" t="n">
         <v>4096</v>
       </c>
     </row>
